--- a/blue-rose/checklist.xlsx
+++ b/blue-rose/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/blue-rose/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5082CCE4-00B0-0649-BBE6-8F2FF7BAE503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C81719C0-8C9D-C944-BA18-1DE2F2D2CE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{1909E31A-008F-5C45-9A92-B548A6BC2C31}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162B2A00-4240-B546-8CBC-0E6CFB458CAD}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,9 +475,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/blue-rose/checklist.xlsx
+++ b/blue-rose/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/blue-rose/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/blue-rose/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C81719C0-8C9D-C944-BA18-1DE2F2D2CE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF85B87-5E45-E84E-8B25-A20F4A5BE817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{1909E31A-008F-5C45-9A92-B548A6BC2C31}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="15780" xr2:uid="{1909E31A-008F-5C45-9A92-B548A6BC2C31}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>year</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>ブルーローズ</t>
+  </si>
+  <si>
+    <t>ブルーローズ・ネクサス</t>
+  </si>
+  <si>
+    <t>Blue Rose Nexus</t>
+  </si>
+  <si>
+    <t>blue_rose_nexus.jpg</t>
   </si>
 </sst>
 </file>
@@ -427,13 +436,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162B2A00-4240-B546-8CBC-0E6CFB458CAD}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -472,6 +486,26 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2009</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>7</v>
       </c>
     </row>
